--- a/numberSheet/sheetFont3.xlsx
+++ b/numberSheet/sheetFont3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28360" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="3" r:id="rId1"/>
@@ -119,7 +119,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="28"/>
+      <sz val="34"/>
       <color theme="1"/>
       <name val="ＤＦＰ隷書体"/>
       <charset val="128"/>
@@ -826,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" activeCellId="9" sqref="A6 A6:XFD6 A9:XFD9 A12:XFD12 A15:XFD15 A18:XFD18 A21:XFD21 A24:XFD24 A27:XFD27 A30:XFD30"/>
     </sheetView>
   </sheetViews>
@@ -4366,7 +4366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" activeCellId="8" sqref="A6:XFD6 A9:XFD9 A12:XFD12 A15:XFD15 A18:XFD18 A21:XFD21 A24:XFD24 A27:XFD27 A30:XFD30"/>
     </sheetView>
   </sheetViews>
